--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="12020" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JUnit" sheetId="1" r:id="rId1"/>
+    <sheet name="Manual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>Test ID</t>
   </si>
@@ -364,6 +365,36 @@
   </si>
   <si>
     <t>DeletePrinterConfigurationCommandTest</t>
+  </si>
+  <si>
+    <t>TesterName</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TestGetPrinterConfigurations</t>
+  </si>
+  <si>
+    <t>TestGetExtruderConfigurations</t>
+  </si>
+  <si>
+    <t>TestGetMaterialConfigurations</t>
+  </si>
+  <si>
+    <t>TestGetPrintJobSelections</t>
   </si>
 </sst>
 </file>
@@ -692,18 +723,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C103" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C103">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*pf*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C86" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C86"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
     <tableColumn id="2" name="Test Name" dataDxfId="1"/>
@@ -1035,13 +1065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
@@ -1049,7 +1079,7 @@
     <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1060,805 +1090,694 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" hidden="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" hidden="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" hidden="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" hidden="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" hidden="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" hidden="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" hidden="1">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" hidden="1">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" hidden="1">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" hidden="1">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" hidden="1">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" hidden="1">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" hidden="1">
+        <v>55</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" hidden="1">
+        <v>56</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" hidden="1">
+        <v>57</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" hidden="1">
+        <v>58</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" hidden="1">
+        <v>109</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1">
+        <v>70</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1">
+        <v>73</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1">
+        <v>75</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" hidden="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" hidden="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" hidden="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" hidden="1">
-      <c r="A78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3" hidden="1">
-      <c r="A79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" hidden="1">
-      <c r="A91" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" hidden="1">
-      <c r="A92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" hidden="1">
-      <c r="A93" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" hidden="1">
-      <c r="A94" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" hidden="1">
-      <c r="A95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" hidden="1">
-      <c r="A96" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3" hidden="1">
-      <c r="A97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" hidden="1">
-      <c r="A98" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:3" hidden="1">
-      <c r="A99" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1">
-      <c r="A100" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1">
-      <c r="A101" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1">
-      <c r="A102" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1">
-      <c r="A103" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>93</v>
-      </c>
+      <c r="B84" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1866,4 +1785,188 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>Test ID</t>
   </si>
@@ -395,6 +395,108 @@
   </si>
   <si>
     <t>TestGetPrintJobSelections</t>
+  </si>
+  <si>
+    <t>TestGetPrintConfigurations</t>
+  </si>
+  <si>
+    <t>testGetExtruderConfiguration</t>
+  </si>
+  <si>
+    <t>testGetMaterialConfiguration</t>
+  </si>
+  <si>
+    <t>testGetPrintJobConfiguration</t>
+  </si>
+  <si>
+    <t>PF-Added</t>
+  </si>
+  <si>
+    <t>testGetPrintJobSelection</t>
+  </si>
+  <si>
+    <t>testGetPrintConfiguration</t>
+  </si>
+  <si>
+    <t>testGetPrinterConfiguration</t>
+  </si>
+  <si>
+    <t>testSavePrinterConfiguration</t>
+  </si>
+  <si>
+    <t>testSaveExtruderConfiguration</t>
+  </si>
+  <si>
+    <t>testSaveMaterialConfiguration</t>
+  </si>
+  <si>
+    <t>testSavePrintJobSelection</t>
+  </si>
+  <si>
+    <t>testSavePrintConfiguration</t>
+  </si>
+  <si>
+    <t>testDeletePrinterConfigurationValidFile</t>
+  </si>
+  <si>
+    <t>testDeletePrinterConfigurationInvalidFile</t>
+  </si>
+  <si>
+    <t>testDeleteExtruderConfigurationValidFile</t>
+  </si>
+  <si>
+    <t>testDeleteExtruderConfigurationInvalidFile</t>
+  </si>
+  <si>
+    <t>testDeleteMaterialConfigurationValidFile</t>
+  </si>
+  <si>
+    <t>testDeleteMaterialConfigurationInvalidFile</t>
+  </si>
+  <si>
+    <t>testDeletePrintJobSelectionValidFile</t>
+  </si>
+  <si>
+    <t>testDeletePrintJobSelectionInvalidFile</t>
+  </si>
+  <si>
+    <t>testDeletePrintConfigurationValidFile</t>
+  </si>
+  <si>
+    <t>testDeletePrintConfigurationInvalidFile</t>
+  </si>
+  <si>
+    <t>testGetStlFiles</t>
+  </si>
+  <si>
+    <t>testGetStlFile</t>
+  </si>
+  <si>
+    <t>testImportStlFile</t>
+  </si>
+  <si>
+    <t>testDeleteStlFileValidFile</t>
+  </si>
+  <si>
+    <t>testDeleteStlFileInvalidFile</t>
+  </si>
+  <si>
+    <t>testSubsectionFiles</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>testTranslateFiles</t>
+  </si>
+  <si>
+    <t>testSlic3rPreprocessor</t>
+  </si>
+  <si>
+    <t>testGenerateGCode</t>
+  </si>
+  <si>
+    <t>testGCodePreparer</t>
   </si>
 </sst>
 </file>
@@ -732,8 +834,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C86" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C107" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C107"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
     <tableColumn id="2" name="Test Name" dataDxfId="1"/>
@@ -1065,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1462,21 +1564,29 @@
       <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1563,84 +1673,130 @@
       <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
@@ -1753,7 +1909,9 @@
       <c r="B84" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
@@ -1762,7 +1920,9 @@
       <c r="B85" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
@@ -1771,7 +1931,240 @@
       <c r="B86" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRDesign\Test Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="JUnit" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="172">
   <si>
     <t>Test ID</t>
   </si>
@@ -497,6 +502,45 @@
   </si>
   <si>
     <t>testGCodePreparer</t>
+  </si>
+  <si>
+    <t>testLoadMaterialConfiguration</t>
+  </si>
+  <si>
+    <t>testDeleteMaterialConfiguration</t>
+  </si>
+  <si>
+    <t>testLoadMaterialConfigurations</t>
+  </si>
+  <si>
+    <t>testLoadPrinterConfiguration</t>
+  </si>
+  <si>
+    <t>testDeletePrinterConfiguration</t>
+  </si>
+  <si>
+    <t>testLoadPrinterConfigurations</t>
+  </si>
+  <si>
+    <t>testLoadPrintConfiguration</t>
+  </si>
+  <si>
+    <t>testDeletePrintConfiguration</t>
+  </si>
+  <si>
+    <t>testLoadPrintConfigurationList</t>
+  </si>
+  <si>
+    <t>testLoadExtruderConfiguration</t>
+  </si>
+  <si>
+    <t>testDeleteExtruderConfiguration</t>
+  </si>
+  <si>
+    <t>testLoadExtruderConfigurationList</t>
+  </si>
+  <si>
+    <t>SR1</t>
   </si>
 </sst>
 </file>
@@ -828,6 +872,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,18 +1217,18 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1192,196 +1239,264 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1403,7 +1518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1414,7 +1529,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1540,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -1436,7 +1551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -1447,7 +1562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1573,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -1469,7 +1584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -1480,7 +1595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +1606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -1502,7 +1617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1524,7 +1639,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -1535,7 +1650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -1546,21 +1661,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
@@ -1571,102 +1686,106 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C48" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
@@ -1677,7 +1796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>75</v>
       </c>
@@ -1688,7 +1807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -1699,7 +1818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>77</v>
       </c>
@@ -1710,7 +1829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
@@ -1721,7 +1840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -1732,7 +1851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>80</v>
       </c>
@@ -1743,7 +1862,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>81</v>
       </c>
@@ -1754,7 +1873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
@@ -1765,7 +1884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
@@ -1776,7 +1895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -1787,7 +1906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -1798,56 +1917,56 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>59</v>
       </c>
@@ -1858,7 +1977,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
@@ -1869,7 +1988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>59</v>
       </c>
@@ -1880,7 +1999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>59</v>
       </c>
@@ -1891,7 +2010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>59</v>
       </c>
@@ -1902,7 +2021,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>74</v>
       </c>
@@ -1913,7 +2032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>74</v>
       </c>
@@ -1924,7 +2043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>74</v>
       </c>
@@ -1935,7 +2054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>74</v>
       </c>
@@ -1946,7 +2065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>74</v>
       </c>
@@ -1957,7 +2076,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>74</v>
       </c>
@@ -1968,7 +2087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>129</v>
       </c>
@@ -1979,7 +2098,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>129</v>
       </c>
@@ -1990,7 +2109,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>84</v>
       </c>
@@ -2001,7 +2120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>84</v>
       </c>
@@ -2023,7 +2142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>84</v>
       </c>
@@ -2034,7 +2153,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
@@ -2045,7 +2164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>84</v>
       </c>
@@ -2056,7 +2175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>84</v>
       </c>
@@ -2067,7 +2186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>84</v>
       </c>
@@ -2078,7 +2197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>84</v>
       </c>
@@ -2089,7 +2208,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>129</v>
       </c>
@@ -2100,7 +2219,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>129</v>
       </c>
@@ -2111,7 +2230,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>129</v>
       </c>
@@ -2122,7 +2241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>129</v>
       </c>
@@ -2133,7 +2252,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>129</v>
       </c>
@@ -2144,7 +2263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>85</v>
       </c>
@@ -2155,7 +2274,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>85</v>
       </c>
@@ -2188,14 +2307,14 @@
       <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2218,140 +2337,140 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JUnit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>Test ID</t>
   </si>
@@ -541,6 +541,21 @@
   </si>
   <si>
     <t>SR1</t>
+  </si>
+  <si>
+    <t>STL File</t>
+  </si>
+  <si>
+    <t>STL File appears in GUI</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>"Delete" Click</t>
+  </si>
+  <si>
+    <t>Selected STL is removed from GUI</t>
   </si>
 </sst>
 </file>
@@ -739,7 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -756,6 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1216,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2303,15 +2319,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,15 +2360,41 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="199">
   <si>
     <t>Test ID</t>
   </si>
@@ -552,10 +552,76 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>"Delete" Click</t>
-  </si>
-  <si>
     <t>Selected STL is removed from GUI</t>
+  </si>
+  <si>
+    <t>"Delete" click</t>
+  </si>
+  <si>
+    <t>"New" click</t>
+  </si>
+  <si>
+    <t>Display is updated</t>
+  </si>
+  <si>
+    <t>Material Data</t>
+  </si>
+  <si>
+    <t>Material data is saved</t>
+  </si>
+  <si>
+    <t>Selected Material is deleted</t>
+  </si>
+  <si>
+    <t>Printer data</t>
+  </si>
+  <si>
+    <t>Printer data is saved</t>
+  </si>
+  <si>
+    <t>Extruder data</t>
+  </si>
+  <si>
+    <t>Extruder data is saved</t>
+  </si>
+  <si>
+    <t>Selected Extruder is deleted</t>
+  </si>
+  <si>
+    <t>Print data</t>
+  </si>
+  <si>
+    <t>Print data is saved</t>
+  </si>
+  <si>
+    <t>Selected Print is deleted</t>
+  </si>
+  <si>
+    <t>Print Job selection</t>
+  </si>
+  <si>
+    <t>Display is updated with selected Print Job</t>
+  </si>
+  <si>
+    <t>"New Subsection" click</t>
+  </si>
+  <si>
+    <t>New subsection is added to the display</t>
+  </si>
+  <si>
+    <t>Print Job data</t>
+  </si>
+  <si>
+    <t>Print Job data is saved</t>
+  </si>
+  <si>
+    <t>Selected Print Job is deleted</t>
+  </si>
+  <si>
+    <t>"Pause/Resume" click</t>
+  </si>
+  <si>
+    <t>"Cancel" click</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2386,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2384,13 +2450,13 @@
         <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>174</v>
@@ -2400,127 +2466,361 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="JUnit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="201">
   <si>
     <t>Test ID</t>
   </si>
@@ -622,6 +622,12 @@
   </si>
   <si>
     <t>"Cancel" click</t>
+  </si>
+  <si>
+    <t>testDeleteStlFile</t>
+  </si>
+  <si>
+    <t>PG1</t>
   </si>
 </sst>
 </file>
@@ -928,6 +934,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -937,13 +950,6 @@
         <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -963,7 +969,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C107" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C107" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C107"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
@@ -1298,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1325,15 +1331,23 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1747,15 +1761,23 @@
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1993,7 +2015,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>154</v>
@@ -2001,10 +2023,14 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -2385,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JUnit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="206">
   <si>
     <t>Test ID</t>
   </si>
@@ -628,6 +628,21 @@
   </si>
   <si>
     <t>PG1</t>
+  </si>
+  <si>
+    <t>SG1</t>
+  </si>
+  <si>
+    <t>Button presses, Text input</t>
+  </si>
+  <si>
+    <t>Displays are updated and menus switch correctly</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>Controllers save/load configurations correctly</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -796,6 +811,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -826,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -844,6 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -969,8 +996,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C107" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C100" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C100"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
     <tableColumn id="2" name="Test Name" dataDxfId="1"/>
@@ -1302,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1877,24 +1904,32 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>93</v>
@@ -1902,10 +1937,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>93</v>
@@ -1913,10 +1948,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>93</v>
@@ -1924,10 +1959,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>93</v>
@@ -1935,10 +1970,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>93</v>
@@ -1946,10 +1981,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>93</v>
@@ -1957,10 +1992,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>93</v>
@@ -1968,10 +2003,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>93</v>
@@ -1979,10 +2014,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>93</v>
@@ -1990,140 +2025,160 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>93</v>
+        <v>156</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>93</v>
+        <v>158</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>154</v>
+      <c r="A72" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="A79" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="A80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="12" t="s">
+      <c r="A81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="A82" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>114</v>
+      <c r="A83" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>93</v>
@@ -2131,87 +2186,87 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>123</v>
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>124</v>
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>125</v>
+      <c r="A87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>121</v>
+      <c r="A88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>121</v>
+      <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>130</v>
+      <c r="A90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>137</v>
+      <c r="A91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>93</v>
@@ -2222,7 +2277,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>93</v>
@@ -2233,18 +2288,18 @@
         <v>84</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>141</v>
+      <c r="A94" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>93</v>
@@ -2252,10 +2307,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>93</v>
@@ -2263,10 +2318,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>93</v>
@@ -2274,10 +2329,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>93</v>
@@ -2285,111 +2340,34 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>93</v>
+      <c r="A99" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="A100" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C100" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2409,18 +2387,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="41.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
@@ -2848,6 +2826,81 @@
         <v>174</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRDesign\Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\SRDesign\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="232">
   <si>
     <t>Test ID</t>
   </si>
@@ -643,6 +643,84 @@
   </si>
   <si>
     <t>Controllers save/load configurations correctly</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>G-Code file. UI "Cancel"</t>
+  </si>
+  <si>
+    <t>G-Code stream is halted</t>
+  </si>
+  <si>
+    <t>Printer status exits thread terminating G-Code stream</t>
+  </si>
+  <si>
+    <t>G-Code file. Temperature feedback</t>
+  </si>
+  <si>
+    <t>Printer status hangs in loop waiting for temps to fall</t>
+  </si>
+  <si>
+    <t>Printer status hangs in loop waiting for resume when paused</t>
+  </si>
+  <si>
+    <t>G-Code file. UI "Pause/Resume"</t>
+  </si>
+  <si>
+    <t>Printer feedback data</t>
+  </si>
+  <si>
+    <t>Temperature data populated in TemperatureObject</t>
+  </si>
+  <si>
+    <t>TemperatureObject correctly populated with tool temps</t>
+  </si>
+  <si>
+    <t>G-Code file</t>
+  </si>
+  <si>
+    <t>Serialize g-codes with correct line endings</t>
+  </si>
+  <si>
+    <t>G-codes have correct line endings, comments are stripped</t>
+  </si>
+  <si>
+    <t>Feedback information correctly stored and assembled</t>
+  </si>
+  <si>
+    <t>PrintJobConfiguration obj</t>
+  </si>
+  <si>
+    <t>Successfully connect to printer</t>
+  </si>
+  <si>
+    <t>Successfully connected to printer. Fails otherwise</t>
+  </si>
+  <si>
+    <t>Serialized G-code</t>
+  </si>
+  <si>
+    <t>Successfully poll and send G-code to printer</t>
+  </si>
+  <si>
+    <t>Module successfully sends serialized G-Codes to printer</t>
+  </si>
+  <si>
+    <t>Successfully read printer feedback data when ready</t>
+  </si>
+  <si>
+    <t>Printer feedback string is successfully read</t>
+  </si>
+  <si>
+    <t>G-Code File. PrintJobConfiguration Object. Printer Feedback data</t>
+  </si>
+  <si>
+    <t>Est. Connection to printer, send g-codes and populate feedback object</t>
+  </si>
+  <si>
+    <t>Connection established, g-codes send successfully and feedback data populated</t>
   </si>
 </sst>
 </file>
@@ -961,13 +1039,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -977,6 +1048,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -996,8 +1074,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C100" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C90" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C90"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
     <tableColumn id="2" name="Test Name" dataDxfId="1"/>
@@ -1329,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1841,73 +1919,109 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>93</v>
@@ -1915,10 +2029,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>93</v>
@@ -1926,259 +2040,263 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>93</v>
+        <v>156</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>93</v>
+        <v>158</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>128</v>
+      <c r="A62" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>131</v>
+      <c r="A63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>133</v>
+      <c r="A64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>134</v>
+      <c r="A65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>114</v>
+      <c r="A76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>122</v>
+      <c r="A77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>123</v>
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>124</v>
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>125</v>
+      <c r="A80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>121</v>
+      <c r="A81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>121</v>
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>130</v>
+      <c r="A83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>93</v>
@@ -2189,7 +2307,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>93</v>
@@ -2197,10 +2315,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>93</v>
@@ -2208,10 +2326,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>93</v>
@@ -2219,10 +2337,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>93</v>
@@ -2230,144 +2348,34 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>93</v>
+      <c r="A89" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A90" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B100" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2387,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2909,206 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Test Plan/Test Traker.xlsx
+++ b/Test Plan/Test Traker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\SRDesign\Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\time9_000\SRDesign\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12015" yWindow="1440" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="JUnit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
   <si>
     <t>Test ID</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>TestGetPrinterConfigurations</t>
   </si>
   <si>
@@ -721,13 +718,135 @@
   </si>
   <si>
     <t>Connection established, g-codes send successfully and feedback data populated</t>
+  </si>
+  <si>
+    <t>Whole Team</t>
+  </si>
+  <si>
+    <t>Print Job Configuration, STL Files, "Start Print" click</t>
+  </si>
+  <si>
+    <t>Fully Formed Configuration object (UI Layer)
+Subsection AMF Files (Preprocessing Layer)
+Raw G-Code Files (Processing Layer)
+Compiled G0Code (Post Processing Layer)
+Stream of Codes (Printer Control Layer)
+Stream of data (Communications Layer)
+Printer Object (Printer)
+Status Updates (Printer)
+Status Control Updates (State Monitoring Layer)</t>
+  </si>
+  <si>
+    <t>The GUI will update showing the STL File was imported</t>
+  </si>
+  <si>
+    <t>The GUI updated and the STL was shown in the sysytem</t>
+  </si>
+  <si>
+    <t>Configuration Information, Button clicks</t>
+  </si>
+  <si>
+    <t>The GUI updates and shows the input and saved information.  The database is updated to show the input information.</t>
+  </si>
+  <si>
+    <t>The GUI showed the updated input configuration information and the database showed the updates.</t>
+  </si>
+  <si>
+    <t>Configuration Information, STL Files, Button clicks</t>
+  </si>
+  <si>
+    <t>The system printed a solid model based on the configuration data.</t>
+  </si>
+  <si>
+    <t>The system will produce a solid 3-D printed model.</t>
+  </si>
+  <si>
+    <t>Cold Air</t>
+  </si>
+  <si>
+    <t>The system will halt printing until the temperature is back to the specified temperature</t>
+  </si>
+  <si>
+    <t>The temperature halted printing when the temperature fell below specified temperature.</t>
+  </si>
+  <si>
+    <t>G-Code and Temperature data</t>
+  </si>
+  <si>
+    <t>The Status GUI updates</t>
+  </si>
+  <si>
+    <t>The Status GUI updates with the input data</t>
+  </si>
+  <si>
+    <t>Pause/Resume Button Click</t>
+  </si>
+  <si>
+    <t>The Status Controller called the pause/resume method on the Printer State Controller</t>
+  </si>
+  <si>
+    <t>The Status Controller calls the pause/resume method on the Printer State Controller</t>
+  </si>
+  <si>
+    <t>Cancel Button Click</t>
+  </si>
+  <si>
+    <t>The Status Controller calls the cancel method on the Printer State Controller</t>
+  </si>
+  <si>
+    <t>The Status Controller called the cancel method on the Printer State Controller</t>
+  </si>
+  <si>
+    <t>Save Button Click</t>
+  </si>
+  <si>
+    <t>The Print Job Controller saves the config information to the database</t>
+  </si>
+  <si>
+    <t>The Print Job Controller saved the config information to the database</t>
+  </si>
+  <si>
+    <t>Load Button Click</t>
+  </si>
+  <si>
+    <t>The Print Job Controller loads the Print Job and passes it to the GUI</t>
+  </si>
+  <si>
+    <t>The Print Job Controller loaded the Print Job and passes it to the GUI</t>
+  </si>
+  <si>
+    <t>Delete Button Click</t>
+  </si>
+  <si>
+    <t>The Print Job Controller deletes the selected Print Job</t>
+  </si>
+  <si>
+    <t>The Print Job Controller deleted the selected Print Job</t>
+  </si>
+  <si>
+    <t>Print Job Tab Selection</t>
+  </si>
+  <si>
+    <t>The Print Job Controller loads the list of Print Jobs and passes it to the GUI</t>
+  </si>
+  <si>
+    <t>The Print Job Controller loads the list of Print Jobs and passed it to the GUI</t>
+  </si>
+  <si>
+    <t>Start Print Job Click</t>
+  </si>
+  <si>
+    <t>The Print Job Controller started the processing and opened the Status GUI</t>
+  </si>
+  <si>
+    <t>The Print Job Controller starts the processing and opens the Status GUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -761,6 +880,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -770,7 +897,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -889,17 +1016,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -930,7 +1046,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -947,8 +1063,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1074,8 +1224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C90" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:C82" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C82"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test ID" dataDxfId="2"/>
     <tableColumn id="2" name="Test Name" dataDxfId="1"/>
@@ -1407,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1437,10 +1587,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1598,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1609,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,10 +1620,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1631,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,10 +1642,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,10 +1653,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,10 +1675,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,10 +1686,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1697,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1708,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,10 +1719,10 @@
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,10 +1730,10 @@
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,10 +1741,10 @@
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,10 +1774,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,74 +1785,106 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>93</v>
@@ -1710,10 +1892,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>93</v>
@@ -1721,10 +1903,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>93</v>
@@ -1732,10 +1914,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>93</v>
@@ -1743,10 +1925,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>93</v>
@@ -1754,10 +1936,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>93</v>
@@ -1765,10 +1947,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>93</v>
@@ -1776,153 +1958,153 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>105</v>
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>154</v>
+        <v>126</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>154</v>
+        <v>130</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>93</v>
@@ -1930,10 +2112,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>93</v>
@@ -1941,10 +2123,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>93</v>
@@ -1952,252 +2134,252 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>93</v>
+        <v>155</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="B65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="C66" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="C67" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>123</v>
+      <c r="A68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>124</v>
+      <c r="A69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>125</v>
+      <c r="A70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>121</v>
+      <c r="A71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>121</v>
+      <c r="A72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>130</v>
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>137</v>
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>93</v>
@@ -2208,18 +2390,18 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>140</v>
+      <c r="A76" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>93</v>
@@ -2227,10 +2409,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>93</v>
@@ -2238,10 +2420,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>93</v>
@@ -2249,10 +2431,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>93</v>
@@ -2260,123 +2442,35 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>93</v>
+      <c r="A81" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A82" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>154</v>
+      <c r="C82" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2395,718 +2489,942 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="26.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D6" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D13" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E13" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="F13" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D14" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="D21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="C29" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C30" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F31" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="E38" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" t="s">
-        <v>174</v>
+      <c r="F38" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
